--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/67/word_level_predictions_67.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_B-NonEvent</t>
         </is>
       </c>
     </row>
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>2</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>14</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>2</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>2</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>16</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>2</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>17</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>2</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6482,262 +6482,262 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>20</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>3</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>21</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>3</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>22</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>23</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>3</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>24</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/67/word_level_predictions_67.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ambient</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>15</v>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>16</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>17</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>18</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6482,262 +6482,262 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="I118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>21</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="I120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>3</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>22</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>3</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>23</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>3</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>24</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
